--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2462.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2462.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.104302703183982</v>
+        <v>1.674501419067383</v>
       </c>
       <c r="B1">
-        <v>2.486584375926872</v>
+        <v>2.353157520294189</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.119368314743042</v>
       </c>
       <c r="D1">
-        <v>3.135754846753594</v>
+        <v>3.722827672958374</v>
       </c>
       <c r="E1">
-        <v>0.9473317039995423</v>
+        <v>0.5787047743797302</v>
       </c>
     </row>
   </sheetData>
